--- a/edu_train_final.xlsx
+++ b/edu_train_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minjingshi/Desktop/logi2dial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE1D4AE-622B-0648-B7F2-818CA3563B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A96978-7213-7641-80F6-2E3973073F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29000" windowHeight="15680" xr2:uid="{6C6BB5BE-25EA-4D92-895E-BDE57227C105}"/>
   </bookViews>
@@ -10185,8 +10185,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L1571"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J708" sqref="J708"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J919" sqref="J919"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10305,7 +10305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>11</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>35</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>54</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>76</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>82</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>84</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>91</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>117</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>124</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>133</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>135</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>150</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>177</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>178</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>185</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>191</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>200</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>218</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>221</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>263</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>271</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>316</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>324</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>333</v>
       </c>
@@ -14143,7 +14143,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>350</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>358</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>362</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>373</v>
       </c>
@@ -14485,7 +14485,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>376</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>384</v>
       </c>
@@ -14751,7 +14751,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>388</v>
       </c>
@@ -14827,7 +14827,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>395</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>397</v>
       </c>
@@ -14979,7 +14979,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>406</v>
       </c>
@@ -15017,7 +15017,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>407</v>
       </c>
@@ -15207,7 +15207,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>423</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>441</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>448</v>
       </c>
@@ -15511,7 +15511,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>449</v>
       </c>
@@ -15587,7 +15587,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>453</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>459</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>460</v>
       </c>
@@ -15853,7 +15853,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>468</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>471</v>
       </c>
@@ -15929,7 +15929,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>473</v>
       </c>
@@ -16575,7 +16575,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>509</v>
       </c>
@@ -16727,7 +16727,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>521</v>
       </c>
@@ -16841,7 +16841,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>528</v>
       </c>
@@ -17107,7 +17107,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>553</v>
       </c>
@@ -17183,7 +17183,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>555</v>
       </c>
@@ -17259,7 +17259,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>559</v>
       </c>
@@ -17335,7 +17335,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>565</v>
       </c>
@@ -17449,7 +17449,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>587</v>
       </c>
@@ -17487,7 +17487,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>591</v>
       </c>
@@ -17867,7 +17867,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>616</v>
       </c>
@@ -17905,7 +17905,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>617</v>
       </c>
@@ -18095,7 +18095,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>625</v>
       </c>
@@ -18171,7 +18171,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>630</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>635</v>
       </c>
@@ -18247,7 +18247,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>639</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>641</v>
       </c>
@@ -18665,7 +18665,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>660</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>672</v>
       </c>
@@ -19045,7 +19045,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>681</v>
       </c>
@@ -19121,7 +19121,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>689</v>
       </c>
@@ -19501,7 +19501,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>714</v>
       </c>
@@ -19653,7 +19653,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>720</v>
       </c>
@@ -19919,7 +19919,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>738</v>
       </c>
@@ -19995,7 +19995,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>744</v>
       </c>
@@ -20071,7 +20071,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>747</v>
       </c>
@@ -20223,7 +20223,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>776</v>
       </c>
@@ -20299,7 +20299,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>786</v>
       </c>
@@ -20337,7 +20337,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>787</v>
       </c>
@@ -20641,7 +20641,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>815</v>
       </c>
@@ -20717,7 +20717,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>822</v>
       </c>
@@ -20831,7 +20831,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>827</v>
       </c>
@@ -20907,7 +20907,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>833</v>
       </c>
@@ -20945,7 +20945,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>836</v>
       </c>
@@ -20983,7 +20983,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>837</v>
       </c>
@@ -21059,7 +21059,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>839</v>
       </c>
@@ -21097,7 +21097,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>841</v>
       </c>
@@ -21135,7 +21135,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>842</v>
       </c>
@@ -21287,7 +21287,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>862</v>
       </c>
@@ -21439,7 +21439,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>868</v>
       </c>
@@ -21477,7 +21477,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>874</v>
       </c>
@@ -21515,7 +21515,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>878</v>
       </c>
@@ -21629,7 +21629,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>887</v>
       </c>
@@ -21667,7 +21667,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>889</v>
       </c>
@@ -21743,7 +21743,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>892</v>
       </c>
@@ -21933,7 +21933,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>899</v>
       </c>
@@ -22009,7 +22009,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>912</v>
       </c>
@@ -22047,7 +22047,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>922</v>
       </c>
@@ -22199,7 +22199,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>937</v>
       </c>
@@ -22275,7 +22275,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>949</v>
       </c>
@@ -22503,7 +22503,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>973</v>
       </c>
@@ -22731,7 +22731,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>1005</v>
       </c>
@@ -22769,7 +22769,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="332" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1006</v>
       </c>
@@ -22845,7 +22845,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>1018</v>
       </c>
@@ -22997,7 +22997,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="338" spans="1:12" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>1035</v>
       </c>
@@ -23149,7 +23149,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>1050</v>
       </c>
@@ -23225,7 +23225,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>1058</v>
       </c>
@@ -23301,7 +23301,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1060</v>
       </c>
@@ -23415,7 +23415,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>1066</v>
       </c>
@@ -23567,7 +23567,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>1074</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>1089</v>
       </c>
@@ -23795,7 +23795,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>1092</v>
       </c>
@@ -23833,7 +23833,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>1093</v>
       </c>
@@ -23947,7 +23947,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>1101</v>
       </c>
@@ -24023,7 +24023,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>1112</v>
       </c>
@@ -24327,7 +24327,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="373" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>1129</v>
       </c>
@@ -24365,7 +24365,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>1133</v>
       </c>
@@ -24441,7 +24441,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>1136</v>
       </c>
@@ -24517,7 +24517,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>1143</v>
       </c>
@@ -24555,7 +24555,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>1145</v>
       </c>
@@ -24669,7 +24669,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>1158</v>
       </c>
@@ -24783,7 +24783,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="385" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>1166</v>
       </c>
@@ -24821,7 +24821,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>1170</v>
       </c>
@@ -25163,7 +25163,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>1200</v>
       </c>
@@ -25239,7 +25239,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>1208</v>
       </c>
@@ -25353,7 +25353,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>1220</v>
       </c>
@@ -25391,7 +25391,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>1221</v>
       </c>
@@ -25581,7 +25581,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>1247</v>
       </c>
@@ -25619,7 +25619,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>1253</v>
       </c>
@@ -25657,7 +25657,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>1255</v>
       </c>
@@ -25847,7 +25847,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>1274</v>
       </c>
@@ -25885,7 +25885,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>1276</v>
       </c>
@@ -25961,7 +25961,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>1284</v>
       </c>
@@ -26037,7 +26037,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>1289</v>
       </c>
@@ -26189,7 +26189,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="422" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>1302</v>
       </c>
@@ -26265,7 +26265,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>1310</v>
       </c>
@@ -26303,7 +26303,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>1311</v>
       </c>
@@ -26341,7 +26341,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>1322</v>
       </c>
@@ -26607,7 +26607,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>1356</v>
       </c>
@@ -26797,7 +26797,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>1364</v>
       </c>
@@ -26949,7 +26949,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>1374</v>
       </c>
@@ -27063,7 +27063,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>1381</v>
       </c>
@@ -27139,7 +27139,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>1394</v>
       </c>
@@ -27215,7 +27215,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>1396</v>
       </c>
@@ -27253,7 +27253,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>1398</v>
       </c>
@@ -27291,7 +27291,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>1401</v>
       </c>
@@ -27405,7 +27405,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>1404</v>
       </c>
@@ -27557,7 +27557,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>1412</v>
       </c>
@@ -27747,7 +27747,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>1428</v>
       </c>
@@ -27785,7 +27785,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="464" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>1430</v>
       </c>
@@ -27823,7 +27823,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>1433</v>
       </c>
@@ -27899,7 +27899,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>1438</v>
       </c>
@@ -27937,7 +27937,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>1439</v>
       </c>
@@ -28051,7 +28051,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="471" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>1442</v>
       </c>
@@ -28089,7 +28089,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>1443</v>
       </c>
@@ -28279,7 +28279,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>1459</v>
       </c>
@@ -28545,7 +28545,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>1486</v>
       </c>
@@ -28887,7 +28887,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>1507</v>
       </c>
@@ -28925,7 +28925,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>1509</v>
       </c>
@@ -29077,7 +29077,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>1520</v>
       </c>
@@ -29115,7 +29115,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="499" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>1522</v>
       </c>
@@ -29305,7 +29305,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="504" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>1544</v>
       </c>
@@ -29419,7 +29419,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="507" spans="1:12" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>1559</v>
       </c>
@@ -29571,7 +29571,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="511" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>1570</v>
       </c>
@@ -29647,7 +29647,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>1574</v>
       </c>
@@ -29837,7 +29837,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>1585</v>
       </c>
@@ -29875,7 +29875,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="519" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>1586</v>
       </c>
@@ -29989,7 +29989,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="522" spans="1:12" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>1594</v>
       </c>
@@ -30407,7 +30407,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="533" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>1626</v>
       </c>
@@ -30749,7 +30749,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>1647</v>
       </c>
@@ -30939,7 +30939,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>1661</v>
       </c>
@@ -31015,7 +31015,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="549" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>1663</v>
       </c>
@@ -31091,7 +31091,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="551" spans="1:12" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>1669</v>
       </c>
@@ -31205,7 +31205,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="554" spans="1:12" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>1679</v>
       </c>
@@ -31319,7 +31319,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>1689</v>
       </c>
@@ -31433,7 +31433,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>1696</v>
       </c>
@@ -31737,7 +31737,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>1716</v>
       </c>
@@ -31813,7 +31813,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>1720</v>
       </c>
@@ -31851,7 +31851,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>1730</v>
       </c>
@@ -31889,7 +31889,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="572" spans="1:12" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>1731</v>
       </c>
@@ -31965,7 +31965,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>1733</v>
       </c>
@@ -32003,7 +32003,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>1734</v>
       </c>
@@ -32231,7 +32231,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>1755</v>
       </c>
@@ -32421,7 +32421,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="586" spans="1:12" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>1767</v>
       </c>
@@ -32535,7 +32535,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>1778</v>
       </c>
@@ -32687,7 +32687,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>1788</v>
       </c>
@@ -32877,7 +32877,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="598" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>1806</v>
       </c>
@@ -32953,7 +32953,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="600" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>1810</v>
       </c>
@@ -33067,7 +33067,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="603" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>1813</v>
       </c>
@@ -33143,7 +33143,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="605" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>1828</v>
       </c>
@@ -33181,7 +33181,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="606" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>1829</v>
       </c>
@@ -33257,7 +33257,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="608" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>1838</v>
       </c>
@@ -33295,7 +33295,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="609" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>1839</v>
       </c>
@@ -33447,7 +33447,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>1845</v>
       </c>
@@ -34055,7 +34055,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="629" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:12" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>30</v>
       </c>
@@ -34169,7 +34169,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="632" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:12" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>34</v>
       </c>
@@ -34549,7 +34549,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="642" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:12" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>56</v>
       </c>
@@ -35613,7 +35613,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>119</v>
       </c>
@@ -35765,7 +35765,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>127</v>
       </c>
@@ -36411,7 +36411,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>149</v>
       </c>
@@ -36601,7 +36601,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>156</v>
       </c>
@@ -37057,7 +37057,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="708" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:12" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>169</v>
       </c>
@@ -37323,7 +37323,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>181</v>
       </c>
@@ -37513,7 +37513,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="720" spans="1:12" ht="240" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:12" ht="240" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>195</v>
       </c>
@@ -37931,7 +37931,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="731" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>213</v>
       </c>
@@ -38045,7 +38045,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="734" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>217</v>
       </c>
@@ -38197,7 +38197,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="738" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>224</v>
       </c>
@@ -38387,7 +38387,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="743" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>230</v>
       </c>
@@ -38615,7 +38615,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="749" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>239</v>
       </c>
@@ -39489,7 +39489,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="772" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>276</v>
       </c>
@@ -39641,7 +39641,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="776" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>289</v>
       </c>
@@ -39717,7 +39717,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="778" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>296</v>
       </c>
@@ -40173,7 +40173,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="790" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>318</v>
       </c>
@@ -41047,7 +41047,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="813" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>365</v>
       </c>
@@ -41123,7 +41123,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="815" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>368</v>
       </c>
@@ -41237,7 +41237,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="818" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>379</v>
       </c>
@@ -41275,7 +41275,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="819" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>380</v>
       </c>
@@ -41389,7 +41389,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="822" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>389</v>
       </c>
@@ -41845,7 +41845,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="834" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>412</v>
       </c>
@@ -41997,7 +41997,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="838" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>429</v>
       </c>
@@ -42187,7 +42187,7 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="843" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>435</v>
       </c>
@@ -42263,7 +42263,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="845" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>437</v>
       </c>
@@ -42681,7 +42681,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="856" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>475</v>
       </c>
@@ -42833,7 +42833,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="860" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>482</v>
       </c>
@@ -43099,7 +43099,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="867" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>498</v>
       </c>
@@ -43289,7 +43289,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="872" spans="1:12" ht="144" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:12" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>512</v>
       </c>
@@ -43897,7 +43897,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="888" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>546</v>
       </c>
@@ -44847,7 +44847,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="913" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>596</v>
       </c>
@@ -45151,7 +45151,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="921" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>615</v>
       </c>
@@ -45417,7 +45417,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="928" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>631</v>
       </c>
@@ -46025,7 +46025,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="944" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>666</v>
       </c>
@@ -46329,7 +46329,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="952" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>680</v>
       </c>
@@ -46633,7 +46633,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="960" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:12" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>691</v>
       </c>
@@ -47963,7 +47963,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="995" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>760</v>
       </c>
@@ -48229,7 +48229,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="1002" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1002">
         <v>770</v>
       </c>
@@ -48647,7 +48647,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="1013" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1013">
         <v>789</v>
       </c>
@@ -48761,7 +48761,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="1016" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1016">
         <v>794</v>
       </c>
@@ -48837,7 +48837,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="1018" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1018">
         <v>797</v>
       </c>
@@ -49217,7 +49217,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="1028" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1028">
         <v>813</v>
       </c>
@@ -49407,7 +49407,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="1033" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1033">
         <v>828</v>
       </c>
@@ -49559,7 +49559,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="1037" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1037">
         <v>834</v>
       </c>
@@ -49597,7 +49597,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="1038" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1038">
         <v>835</v>
       </c>
@@ -49635,7 +49635,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="1039" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1039">
         <v>843</v>
       </c>
@@ -49711,7 +49711,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="1041" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1041">
         <v>847</v>
       </c>
@@ -50433,7 +50433,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="1060" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1060">
         <v>879</v>
       </c>
@@ -50471,7 +50471,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="1061" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1061">
         <v>880</v>
       </c>
@@ -50547,7 +50547,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="1063" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1063">
         <v>885</v>
       </c>
@@ -50737,7 +50737,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="1068" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:12" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1068">
         <v>903</v>
       </c>
@@ -51307,7 +51307,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="1083" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1083">
         <v>926</v>
       </c>
@@ -51953,7 +51953,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="1100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1100">
         <v>951</v>
       </c>
@@ -52219,7 +52219,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="1107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1107">
         <v>962</v>
       </c>
@@ -52257,7 +52257,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="1108" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:12" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1108">
         <v>963</v>
       </c>
@@ -52485,7 +52485,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="1114" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:12" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1114">
         <v>980</v>
       </c>
@@ -52751,7 +52751,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="1121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1121">
         <v>988</v>
       </c>
@@ -53321,7 +53321,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="1136" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="1136" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1136">
         <v>1016</v>
       </c>
@@ -53739,7 +53739,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="1147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1147">
         <v>1038</v>
       </c>
@@ -54689,7 +54689,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="1172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1172" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1172">
         <v>1084</v>
       </c>
@@ -54879,7 +54879,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="1177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1177" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1177">
         <v>1096</v>
       </c>
@@ -54993,7 +54993,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="1180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1180">
         <v>1100</v>
       </c>
@@ -55715,7 +55715,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="1199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1199" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1199">
         <v>1131</v>
       </c>
@@ -55867,7 +55867,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="1203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1203" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1203">
         <v>1138</v>
       </c>
@@ -56779,7 +56779,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="1227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1227" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1227">
         <v>1182</v>
       </c>
@@ -56931,7 +56931,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="1231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1231" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1231">
         <v>1188</v>
       </c>
@@ -56969,7 +56969,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="1232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1232" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1232">
         <v>1192</v>
       </c>
@@ -57501,7 +57501,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="1246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1246" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1246">
         <v>1222</v>
       </c>
@@ -59515,7 +59515,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="1299" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1299" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1299">
         <v>1312</v>
       </c>
@@ -59743,7 +59743,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="1305" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1305" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1305">
         <v>1319</v>
       </c>
@@ -59781,7 +59781,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="1306" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1306" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1306">
         <v>1323</v>
       </c>
@@ -59895,7 +59895,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="1309" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1309" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1309">
         <v>1327</v>
       </c>
@@ -60237,7 +60237,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="1318" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1318" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1318">
         <v>1339</v>
       </c>
@@ -60351,7 +60351,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="1321" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1321" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1321">
         <v>1343</v>
       </c>
@@ -60731,7 +60731,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="1331" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1331" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1331">
         <v>1362</v>
       </c>
@@ -60807,7 +60807,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="1333" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1333" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1333">
         <v>1369</v>
       </c>
@@ -60883,7 +60883,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="1335" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="1335" spans="1:12" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1335">
         <v>1373</v>
       </c>
@@ -61415,7 +61415,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="1349" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="1349" spans="1:12" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1349">
         <v>1410</v>
       </c>
@@ -61605,7 +61605,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="1354" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1354" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1354">
         <v>1422</v>
       </c>
@@ -61681,7 +61681,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="1356" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1356" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1356">
         <v>1424</v>
       </c>
@@ -61719,7 +61719,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="1357" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1357" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1357">
         <v>1425</v>
       </c>
@@ -61757,7 +61757,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="1358" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1358" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1358">
         <v>1429</v>
       </c>
@@ -63087,7 +63087,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="1393" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1393" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1393">
         <v>1497</v>
       </c>
@@ -63809,7 +63809,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="1412" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1412" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1412">
         <v>1533</v>
       </c>
@@ -64379,7 +64379,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="1427" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1427" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1427">
         <v>1556</v>
       </c>
@@ -64417,7 +64417,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1428" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1428" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1428">
         <v>1562</v>
       </c>
@@ -64455,7 +64455,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="1429" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="1429" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1429">
         <v>1564</v>
       </c>
@@ -64531,7 +64531,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="1431" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1431" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1431">
         <v>1567</v>
       </c>
@@ -64569,7 +64569,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="1432" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1432" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1432">
         <v>1568</v>
       </c>
@@ -64645,7 +64645,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="1434" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1434" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1434">
         <v>1573</v>
       </c>
@@ -67457,7 +67457,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="1508" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1508" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1508">
         <v>1714</v>
       </c>
@@ -67571,7 +67571,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="1511" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1511" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1511">
         <v>1722</v>
       </c>
@@ -68065,7 +68065,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="1524" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1524" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1524">
         <v>1754</v>
       </c>
@@ -68255,7 +68255,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="1529" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1529" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1529">
         <v>1766</v>
       </c>
@@ -68407,7 +68407,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="1533" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1533" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1533">
         <v>1772</v>
       </c>
@@ -68787,7 +68787,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="1543" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1543" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1543">
         <v>1795</v>
       </c>
@@ -68939,7 +68939,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="1547" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1547" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1547">
         <v>1801</v>
       </c>
@@ -69547,7 +69547,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="1563" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1563" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1563">
         <v>1831</v>
       </c>
@@ -69856,7 +69856,7 @@
   <autoFilter ref="K1:K1571" xr:uid="{49653DC1-B34F-4164-B8E1-893B5D411E34}">
     <filterColumn colId="0">
       <filters>
-        <filter val="intentional"/>
+        <filter val="ad hominem"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/edu_train_final.xlsx
+++ b/edu_train_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo_S\Desktop\logi2dial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DFFD50-0909-4288-94E9-0008F27724E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01009D26-6E5B-4945-A66F-386FB8773EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{6C6BB5BE-25EA-4D92-895E-BDE57227C105}"/>
   </bookViews>
@@ -10184,8 +10184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49653DC1-B34F-4164-B8E1-893B5D411E34}">
   <dimension ref="A1:L1570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="J222" sqref="J222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
